--- a/data/berita 2021.xlsx
+++ b/data/berita 2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Downloads\bimbingan\catatanbimbingan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007D6A3E-D34E-4027-B114-0B370ADF6257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8560BED-CA9F-4FDB-9CB1-8EB6D912DEA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="5" xr2:uid="{9175EAC4-A66F-4654-8D30-7BA176D0289D}"/>
   </bookViews>
@@ -1124,11 +1124,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -8488,10 +8489,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C10BFC8-7505-4347-BBCB-C1A8705C4574}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:D122"/>
+  <dimension ref="A1:D123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8513,7 +8514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8527,7 +8528,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -8541,7 +8542,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -8555,7 +8556,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -8569,7 +8570,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -8583,7 +8584,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -8597,7 +8598,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -8611,7 +8612,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
@@ -8625,7 +8626,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -8639,7 +8640,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
@@ -8653,7 +8654,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>6</v>
       </c>
@@ -8667,7 +8668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>7</v>
       </c>
@@ -8681,7 +8682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>7</v>
       </c>
@@ -8695,7 +8696,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>7</v>
       </c>
@@ -8709,7 +8710,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>7</v>
       </c>
@@ -8723,7 +8724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>7</v>
       </c>
@@ -8737,7 +8738,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>7</v>
       </c>
@@ -8751,7 +8752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>7</v>
       </c>
@@ -8765,7 +8766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>7</v>
       </c>
@@ -8779,7 +8780,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>7</v>
       </c>
@@ -8793,7 +8794,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>7</v>
       </c>
@@ -8807,7 +8808,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -8821,7 +8822,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>7</v>
       </c>
@@ -8835,7 +8836,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>8</v>
       </c>
@@ -8849,7 +8850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>8</v>
       </c>
@@ -8863,7 +8864,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>8</v>
       </c>
@@ -8877,7 +8878,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>8</v>
       </c>
@@ -8891,7 +8892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>8</v>
       </c>
@@ -8905,7 +8906,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>8</v>
       </c>
@@ -8919,7 +8920,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2</v>
       </c>
@@ -8933,7 +8934,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2</v>
       </c>
@@ -8947,7 +8948,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2</v>
       </c>
@@ -8961,7 +8962,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>8</v>
       </c>
@@ -8975,7 +8976,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2</v>
       </c>
@@ -8989,7 +8990,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2</v>
       </c>
@@ -9003,7 +9004,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2</v>
       </c>
@@ -9017,7 +9018,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3</v>
       </c>
@@ -9031,7 +9032,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>9</v>
       </c>
@@ -9045,7 +9046,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>9</v>
       </c>
@@ -9059,7 +9060,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>4</v>
       </c>
@@ -9073,7 +9074,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>9</v>
       </c>
@@ -9087,7 +9088,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>5</v>
       </c>
@@ -9101,7 +9102,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>5</v>
       </c>
@@ -9115,7 +9116,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>5</v>
       </c>
@@ -9129,7 +9130,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>9</v>
       </c>
@@ -9143,7 +9144,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>5</v>
       </c>
@@ -9157,7 +9158,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>6</v>
       </c>
@@ -9171,7 +9172,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>6</v>
       </c>
@@ -9185,7 +9186,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>6</v>
       </c>
@@ -9199,7 +9200,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>6</v>
       </c>
@@ -9213,7 +9214,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>7</v>
       </c>
@@ -9227,7 +9228,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>7</v>
       </c>
@@ -9241,7 +9242,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>7</v>
       </c>
@@ -9255,7 +9256,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>10</v>
       </c>
@@ -9269,7 +9270,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>7</v>
       </c>
@@ -9283,7 +9284,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>10</v>
       </c>
@@ -9297,7 +9298,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>7</v>
       </c>
@@ -9311,7 +9312,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>7</v>
       </c>
@@ -9325,7 +9326,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>7</v>
       </c>
@@ -9339,7 +9340,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>7</v>
       </c>
@@ -9353,7 +9354,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>7</v>
       </c>
@@ -9367,7 +9368,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>7</v>
       </c>
@@ -9381,7 +9382,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>7</v>
       </c>
@@ -9395,7 +9396,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>7</v>
       </c>
@@ -9409,7 +9410,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>7</v>
       </c>
@@ -9423,7 +9424,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>7</v>
       </c>
@@ -9437,7 +9438,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>7</v>
       </c>
@@ -9451,7 +9452,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>8</v>
       </c>
@@ -9465,7 +9466,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>8</v>
       </c>
@@ -9479,7 +9480,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>8</v>
       </c>
@@ -9493,7 +9494,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>10</v>
       </c>
@@ -9507,7 +9508,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>10</v>
       </c>
@@ -9521,7 +9522,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>8</v>
       </c>
@@ -9535,7 +9536,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>8</v>
       </c>
@@ -9549,7 +9550,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>8</v>
       </c>
@@ -9563,7 +9564,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>8</v>
       </c>
@@ -9577,7 +9578,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>8</v>
       </c>
@@ -9591,7 +9592,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>8</v>
       </c>
@@ -9605,7 +9606,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>11</v>
       </c>
@@ -9619,7 +9620,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>11</v>
       </c>
@@ -9633,7 +9634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>8</v>
       </c>
@@ -9647,7 +9648,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>9</v>
       </c>
@@ -9661,7 +9662,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>9</v>
       </c>
@@ -9675,7 +9676,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>9</v>
       </c>
@@ -9689,7 +9690,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>9</v>
       </c>
@@ -9703,7 +9704,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>9</v>
       </c>
@@ -9717,7 +9718,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>9</v>
       </c>
@@ -9731,7 +9732,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>9</v>
       </c>
@@ -9745,7 +9746,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>9</v>
       </c>
@@ -9759,7 +9760,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>10</v>
       </c>
@@ -9773,7 +9774,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>10</v>
       </c>
@@ -9787,7 +9788,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>10</v>
       </c>
@@ -9801,7 +9802,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>10</v>
       </c>
@@ -9815,7 +9816,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>10</v>
       </c>
@@ -9829,7 +9830,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>10</v>
       </c>
@@ -9843,7 +9844,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>10</v>
       </c>
@@ -9857,7 +9858,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>10</v>
       </c>
@@ -9871,7 +9872,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>10</v>
       </c>
@@ -9885,7 +9886,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>10</v>
       </c>
@@ -9899,7 +9900,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>10</v>
       </c>
@@ -9913,7 +9914,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>12</v>
       </c>
@@ -9927,7 +9928,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>12</v>
       </c>
@@ -9941,7 +9942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>11</v>
       </c>
@@ -9955,7 +9956,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>11</v>
       </c>
@@ -9969,7 +9970,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>11</v>
       </c>
@@ -9983,7 +9984,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>11</v>
       </c>
@@ -9997,7 +9998,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>11</v>
       </c>
@@ -10011,7 +10012,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>11</v>
       </c>
@@ -10025,7 +10026,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>11</v>
       </c>
@@ -10039,7 +10040,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>12</v>
       </c>
@@ -10053,7 +10054,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>12</v>
       </c>
@@ -10067,7 +10068,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>12</v>
       </c>
@@ -10081,7 +10082,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>12</v>
       </c>
@@ -10095,7 +10096,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>12</v>
       </c>
@@ -10109,7 +10110,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>12</v>
       </c>
@@ -10123,7 +10124,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>12</v>
       </c>
@@ -10137,7 +10138,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>12</v>
       </c>
@@ -10151,7 +10152,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>12</v>
       </c>
@@ -10165,7 +10166,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>12</v>
       </c>
@@ -10179,7 +10180,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>12</v>
       </c>
@@ -10193,25 +10194,28 @@
         <v>12</v>
       </c>
     </row>
-    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <v>12</v>
-      </c>
-      <c r="B122">
-        <v>17</v>
-      </c>
-      <c r="C122" t="s">
+    <row r="122" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="4">
+        <v>12</v>
+      </c>
+      <c r="B122" s="4">
+        <v>17</v>
+      </c>
+      <c r="C122" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="D122" t="s">
-        <v>12</v>
-      </c>
+      <c r="D122" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D122" xr:uid="{7C10BFC8-7505-4347-BBCB-C1A8705C4574}">
     <filterColumn colId="3">
       <filters>
-        <filter val="negatif"/>
+        <filter val="positif"/>
       </filters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:D103">
